--- a/analysis/mails_01/P25_1/table_to_fill.xlsx
+++ b/analysis/mails_01/P25_1/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,6 +63,9 @@
     <t xml:space="preserve">soil</t>
   </si>
   <si>
+    <t xml:space="preserve">14169</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.8829</t>
   </si>
   <si>
@@ -72,9 +75,21 @@
     <t xml:space="preserve">natural_soil</t>
   </si>
   <si>
+    <t xml:space="preserve">7000</t>
+  </si>
+  <si>
     <t xml:space="preserve">lille vildmose</t>
   </si>
   <si>
+    <t xml:space="preserve">Soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogs, mires and fens</t>
+  </si>
+  <si>
     <t xml:space="preserve">Other - LHP</t>
   </si>
   <si>
@@ -114,9 +129,24 @@
     <t xml:space="preserve">built_environment</t>
   </si>
   <si>
+    <t xml:space="preserve">2130</t>
+  </si>
+  <si>
     <t xml:space="preserve">thingbæk kalkminer</t>
   </si>
   <si>
+    <t xml:space="preserve">Sediment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High chalk concentration (limestone quarry)</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD09604</t>
   </si>
   <si>
@@ -129,13 +159,22 @@
     <t xml:space="preserve">MFD10599</t>
   </si>
   <si>
+    <t xml:space="preserve">13984</t>
+  </si>
+  <si>
     <t xml:space="preserve">57.2395</t>
   </si>
   <si>
     <t xml:space="preserve">10.9901</t>
   </si>
   <si>
+    <t xml:space="preserve">2120</t>
+  </si>
+  <si>
     <t xml:space="preserve">læsø saltsydekar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High salinity (saltworks)</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10602</t>
@@ -220,17 +259,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCE0A8"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -250,11 +284,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,477 +632,669 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
       <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
       <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
       <c r="N7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
       <c r="N8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
       <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
       <c r="N9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
       <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
       <c r="N10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2"/>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
       <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
       <c r="N11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
       <c r="H12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
       <c r="N12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
       <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
       <c r="H13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
       <c r="N13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="2"/>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
       <c r="H14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" t="s">
+        <v>53</v>
+      </c>
       <c r="N14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
       <c r="H15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
       <c r="N15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
       <c r="N16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
       <c r="N17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1088,10 +1313,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -1099,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -1107,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1115,7 +1340,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -1123,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -1131,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -1139,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -1147,7 +1372,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -1155,7 +1380,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -1163,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -1171,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -1179,7 +1404,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -1187,7 +1412,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -1195,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -1203,7 +1428,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
